--- a/excel/cityData.xlsx
+++ b/excel/cityData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\web-heat-map\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC84CD1-823B-4F4E-A15B-6BB8D5B9C4C3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="城市汇总" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">城市汇总!$K$1:$K$375</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,12 +31,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>saikokandy</author>
   </authors>
   <commentList>
-    <comment ref="I194" authorId="0" shapeId="0">
+    <comment ref="I194" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I252" authorId="0" shapeId="0">
+    <comment ref="I252" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -83,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G272" authorId="0" shapeId="0">
+    <comment ref="G272" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -107,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E292" authorId="0" shapeId="0">
+    <comment ref="E292" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -131,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F292" authorId="0" shapeId="0">
+    <comment ref="F292" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -155,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F362" authorId="0" shapeId="0">
+    <comment ref="F362" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -179,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E368" authorId="0" shapeId="0">
+    <comment ref="E368" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -203,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G368" authorId="0" shapeId="0">
+    <comment ref="G368" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -227,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I368" authorId="0" shapeId="0">
+    <comment ref="I368" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -251,7 +252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G370" authorId="0" shapeId="0">
+    <comment ref="G370" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -270,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="415">
   <si>
     <t>PM/GDP</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -446,9 +447,6 @@
     <t>珠海</t>
   </si>
   <si>
-    <t>广东省</t>
-  </si>
-  <si>
     <t>珠三角</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -483,10 +481,6 @@
   </si>
   <si>
     <t>鄂尔多斯</t>
-  </si>
-  <si>
-    <t>内蒙古自治区</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>华北地区</t>
@@ -537,10 +531,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>山西省</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>晋城</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -578,10 +568,6 @@
   <si>
     <t>信阳</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>河南省</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>南阳</t>
@@ -645,9 +631,6 @@
     <t>威海</t>
   </si>
   <si>
-    <t>山东省</t>
-  </si>
-  <si>
     <t>华东地区</t>
   </si>
   <si>
@@ -702,9 +685,6 @@
   <si>
     <t>黄山</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>安徽省</t>
   </si>
   <si>
     <t>六安</t>
@@ -768,9 +748,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>江西省</t>
-  </si>
-  <si>
     <t>抚州</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -813,9 +790,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>福建省</t>
-  </si>
-  <si>
     <t>南平</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -847,9 +821,6 @@
   <si>
     <t>孝感</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖北省</t>
   </si>
   <si>
     <t>华南地区</t>
@@ -904,9 +875,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>湖南省</t>
-  </si>
-  <si>
     <t>怀化</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -956,9 +924,6 @@
   <si>
     <t>防城港</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>广西壮族自治区</t>
   </si>
   <si>
     <t>河池</t>
@@ -1049,18 +1014,12 @@
     <t>三亚</t>
   </si>
   <si>
-    <t>海南省</t>
-  </si>
-  <si>
     <t>海口</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>鸡西</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑龙江省</t>
   </si>
   <si>
     <t>东北地区</t>
@@ -1119,9 +1078,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>吉林省</t>
-  </si>
-  <si>
     <t>吉林</t>
   </si>
   <si>
@@ -1149,9 +1105,6 @@
   </si>
   <si>
     <t>大连</t>
-  </si>
-  <si>
-    <t>辽宁省</t>
   </si>
   <si>
     <t>朝阳</t>
@@ -1198,9 +1151,6 @@
   </si>
   <si>
     <t>金昌</t>
-  </si>
-  <si>
-    <t>甘肃省</t>
   </si>
   <si>
     <t>西北地区</t>
@@ -1260,9 +1210,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>青海省</t>
-  </si>
-  <si>
     <t>海西州</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1294,9 +1241,6 @@
     <t>石嘴山</t>
   </si>
   <si>
-    <t>宁夏回族自治区</t>
-  </si>
-  <si>
     <t>吴忠</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1313,9 +1257,6 @@
   </si>
   <si>
     <t>克拉玛依</t>
-  </si>
-  <si>
-    <t>新疆维吾尔自治区</t>
   </si>
   <si>
     <t>乌鲁木齐</t>
@@ -1378,9 +1319,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>陕西省</t>
-  </si>
-  <si>
     <t>铜川</t>
   </si>
   <si>
@@ -1414,9 +1352,6 @@
   <si>
     <t>广元</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>四川省</t>
   </si>
   <si>
     <t>西南地区</t>
@@ -1503,9 +1438,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>贵州省</t>
-  </si>
-  <si>
     <t>安顺</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1539,9 +1471,6 @@
   <si>
     <t>楚雄州</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>云南省</t>
   </si>
   <si>
     <t>昆明</t>
@@ -1602,9 +1531,6 @@
   </si>
   <si>
     <t>拉萨</t>
-  </si>
-  <si>
-    <t>西藏自治区</t>
   </si>
   <si>
     <t>昌都地区</t>
@@ -1756,11 +1682,80 @@
   <si>
     <t>LNGB</t>
   </si>
+  <si>
+    <t>广东</t>
+  </si>
+  <si>
+    <t>山西</t>
+  </si>
+  <si>
+    <t>河南</t>
+  </si>
+  <si>
+    <t>山东</t>
+  </si>
+  <si>
+    <t>安徽</t>
+  </si>
+  <si>
+    <t>江西</t>
+  </si>
+  <si>
+    <t>福建</t>
+  </si>
+  <si>
+    <t>湖北</t>
+  </si>
+  <si>
+    <t>湖南</t>
+  </si>
+  <si>
+    <t>海南</t>
+  </si>
+  <si>
+    <t>黑龙江</t>
+  </si>
+  <si>
+    <t>辽宁</t>
+  </si>
+  <si>
+    <t>甘肃</t>
+  </si>
+  <si>
+    <t>青海</t>
+  </si>
+  <si>
+    <t>陕西</t>
+  </si>
+  <si>
+    <t>四川</t>
+  </si>
+  <si>
+    <t>贵州</t>
+  </si>
+  <si>
+    <t>云南</t>
+  </si>
+  <si>
+    <t>宁夏</t>
+  </si>
+  <si>
+    <t>内蒙古</t>
+  </si>
+  <si>
+    <t>西藏</t>
+  </si>
+  <si>
+    <t>新疆</t>
+  </si>
+  <si>
+    <t>广西</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
@@ -2412,11 +2407,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="百分比 3" xfId="3"/>
+    <cellStyle name="百分比 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 2" xfId="2"/>
-    <cellStyle name="常规 3 2" xfId="4"/>
-    <cellStyle name="常规 5" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -20225,14 +20220,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E354" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AK1" sqref="AK1"/>
+      <selection pane="bottomRight" activeCell="C375" sqref="C375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -20252,46 +20247,46 @@
   <sheetData>
     <row r="1" spans="1:36" ht="15.75" thickBot="1">
       <c r="A1" s="72" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="B1" s="73" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="D1" s="74" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>1</v>
@@ -20300,64 +20295,64 @@
         <v>2</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="S1" s="11" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="V1" s="10" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="X1" s="9" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="Y1" s="9" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="Z1" s="12" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="AA1" s="13" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="AB1" s="14" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="AD1" s="15" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="AE1" s="16" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="AF1" s="9" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="AG1" s="9" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="AH1" s="10" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="AI1" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="AJ1" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:36">
@@ -24178,10 +24173,10 @@
         <v>52</v>
       </c>
       <c r="C44" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="D44" s="19" t="s">
         <v>53</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="E44" s="20">
         <v>1662.38</v>
@@ -24262,13 +24257,13 @@
         <v>40</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C45" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="D45" s="19" t="s">
         <v>53</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="E45" s="29">
         <v>14500.23</v>
@@ -24349,13 +24344,13 @@
         <v>41</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="D46" s="19" t="s">
         <v>53</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="E46" s="29">
         <v>2678.4</v>
@@ -24433,13 +24428,13 @@
         <v>42</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C47" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="D47" s="19" t="s">
         <v>53</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="E47" s="29">
         <v>2638.93</v>
@@ -24514,13 +24509,13 @@
         <v>43</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="D48" s="19" t="s">
         <v>53</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="E48" s="29">
         <v>2000.18</v>
@@ -24601,13 +24596,13 @@
         <v>44</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="D49" s="19" t="s">
         <v>53</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="E49" s="29">
         <v>5490.02</v>
@@ -24688,13 +24683,13 @@
         <v>45</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="D50" s="19" t="s">
         <v>53</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="E50" s="29">
         <v>15420.14</v>
@@ -24778,13 +24773,13 @@
         <v>46</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="D51" s="19" t="s">
         <v>53</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="E51" s="29">
         <v>1660.07</v>
@@ -24862,13 +24857,13 @@
         <v>47</v>
       </c>
       <c r="B52" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="D52" s="19" t="s">
         <v>53</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="E52" s="38">
         <v>7010.17</v>
@@ -24959,10 +24954,10 @@
         <v>19</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E53" s="38"/>
       <c r="F53" s="39"/>
@@ -25027,10 +25022,10 @@
         <v>21</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="21"/>
@@ -25080,13 +25075,13 @@
         <v>48</v>
       </c>
       <c r="B55" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="47" t="s">
+        <v>411</v>
+      </c>
+      <c r="D55" s="47" t="s">
         <v>64</v>
-      </c>
-      <c r="C55" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="D55" s="47" t="s">
-        <v>66</v>
       </c>
       <c r="E55" s="20">
         <v>3955.9</v>
@@ -25164,13 +25159,13 @@
         <v>49</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C56" s="47" t="s">
-        <v>65</v>
+        <v>411</v>
       </c>
       <c r="D56" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E56" s="29">
         <v>1686.15</v>
@@ -25242,13 +25237,13 @@
         <v>50</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C57" s="47" t="s">
-        <v>65</v>
+        <v>411</v>
       </c>
       <c r="D57" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E57" s="29">
         <v>2710.39</v>
@@ -25332,13 +25327,13 @@
         <v>51</v>
       </c>
       <c r="B58" s="48" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="47" t="s">
-        <v>65</v>
+        <v>411</v>
       </c>
       <c r="D58" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E58" s="29">
         <v>570.13</v>
@@ -25410,13 +25405,13 @@
         <v>52</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C59" s="47" t="s">
-        <v>65</v>
+        <v>411</v>
       </c>
       <c r="D59" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E59" s="29">
         <v>3503</v>
@@ -25488,13 +25483,13 @@
         <v>53</v>
       </c>
       <c r="B60" s="48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="47" t="s">
-        <v>65</v>
+        <v>411</v>
       </c>
       <c r="D60" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E60" s="29">
         <v>833.75</v>
@@ -25569,13 +25564,13 @@
         <v>54</v>
       </c>
       <c r="B61" s="48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C61" s="47" t="s">
-        <v>65</v>
+        <v>411</v>
       </c>
       <c r="D61" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E61" s="29">
         <v>902.4</v>
@@ -25647,13 +25642,13 @@
         <v>55</v>
       </c>
       <c r="B62" s="48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C62" s="47" t="s">
-        <v>65</v>
+        <v>411</v>
       </c>
       <c r="D62" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E62" s="29">
         <v>1430.55</v>
@@ -25725,13 +25720,13 @@
         <v>56</v>
       </c>
       <c r="B63" s="48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C63" s="47" t="s">
-        <v>65</v>
+        <v>411</v>
       </c>
       <c r="D63" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E63" s="29">
         <v>1811.82</v>
@@ -25803,13 +25798,13 @@
         <v>57</v>
       </c>
       <c r="B64" s="48" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C64" s="47" t="s">
-        <v>65</v>
+        <v>411</v>
       </c>
       <c r="D64" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E64" s="29">
         <v>834.9</v>
@@ -25884,13 +25879,13 @@
         <v>58</v>
       </c>
       <c r="B65" s="48" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C65" s="47" t="s">
-        <v>65</v>
+        <v>411</v>
       </c>
       <c r="D65" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E65" s="29">
         <v>415.34</v>
@@ -25962,13 +25957,13 @@
         <v>59</v>
       </c>
       <c r="B66" s="49" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C66" s="47" t="s">
-        <v>65</v>
+        <v>411</v>
       </c>
       <c r="D66" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E66" s="38">
         <v>443.51</v>
@@ -26037,10 +26032,10 @@
         <v>19</v>
       </c>
       <c r="C67" s="47" t="s">
-        <v>65</v>
+        <v>411</v>
       </c>
       <c r="D67" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E67" s="29"/>
       <c r="F67" s="36"/>
@@ -26091,10 +26086,10 @@
         <v>21</v>
       </c>
       <c r="C68" s="47" t="s">
-        <v>65</v>
+        <v>411</v>
       </c>
       <c r="D68" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E68" s="29"/>
       <c r="F68" s="36"/>
@@ -26144,13 +26139,13 @@
         <v>60</v>
       </c>
       <c r="B69" s="55" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C69" s="47" t="s">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="D69" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E69" s="29">
         <v>654.70000000000005</v>
@@ -26213,13 +26208,13 @@
         <v>61</v>
       </c>
       <c r="B70" s="48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C70" s="47" t="s">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="D70" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E70" s="29">
         <v>1031.8</v>
@@ -26285,13 +26280,13 @@
         <v>62</v>
       </c>
       <c r="B71" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C71" s="47" t="s">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="D71" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E71" s="29">
         <v>1020.4</v>
@@ -26354,13 +26349,13 @@
         <v>63</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C72" s="47" t="s">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="D72" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E72" s="29">
         <v>2412.87</v>
@@ -26447,13 +26442,13 @@
         <v>64</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C73" s="47" t="s">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="D73" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E73" s="29">
         <v>1223.5999999999999</v>
@@ -26528,13 +26523,13 @@
         <v>65</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C74" s="47" t="s">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="D74" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E74" s="29">
         <v>967.5</v>
@@ -26594,13 +26589,13 @@
         <v>66</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C75" s="47" t="s">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="D75" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E75" s="29">
         <v>1333.7</v>
@@ -26660,13 +26655,13 @@
         <v>67</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C76" s="47" t="s">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="D76" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E76" s="29">
         <v>611.79999999999995</v>
@@ -26726,13 +26721,13 @@
         <v>68</v>
       </c>
       <c r="B77" s="48" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C77" s="47" t="s">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="D77" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E77" s="29">
         <v>1026.4000000000001</v>
@@ -26792,13 +26787,13 @@
         <v>69</v>
       </c>
       <c r="B78" s="48" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C78" s="47" t="s">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="D78" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E78" s="29">
         <v>1140.0999999999999</v>
@@ -26858,13 +26853,13 @@
         <v>70</v>
       </c>
       <c r="B79" s="49" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C79" s="47" t="s">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="D79" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E79" s="38">
         <v>1228.5999999999999</v>
@@ -26921,13 +26916,13 @@
         <v>71</v>
       </c>
       <c r="B80" s="55" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C80" s="47" t="s">
-        <v>91</v>
+        <v>394</v>
       </c>
       <c r="D80" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E80" s="20">
         <v>1581.16</v>
@@ -26990,13 +26985,13 @@
         <v>72</v>
       </c>
       <c r="B81" s="48" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C81" s="47" t="s">
-        <v>91</v>
+        <v>394</v>
       </c>
       <c r="D81" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E81" s="29">
         <v>2498.66</v>
@@ -27059,13 +27054,13 @@
         <v>73</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C82" s="47" t="s">
-        <v>91</v>
+        <v>394</v>
       </c>
       <c r="D82" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E82" s="29">
         <v>1204.68</v>
@@ -27137,13 +27132,13 @@
         <v>74</v>
       </c>
       <c r="B83" s="48" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C83" s="47" t="s">
-        <v>91</v>
+        <v>394</v>
       </c>
       <c r="D83" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E83" s="29">
         <v>1903.3</v>
@@ -27206,13 +27201,13 @@
         <v>75</v>
       </c>
       <c r="B84" s="48" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C84" s="47" t="s">
-        <v>91</v>
+        <v>394</v>
       </c>
       <c r="D84" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E84" s="29">
         <v>1790.65</v>
@@ -27275,13 +27270,13 @@
         <v>76</v>
       </c>
       <c r="B85" s="48" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C85" s="47" t="s">
-        <v>91</v>
+        <v>394</v>
       </c>
       <c r="D85" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E85" s="29">
         <v>1542.02</v>
@@ -27344,13 +27339,13 @@
         <v>77</v>
       </c>
       <c r="B86" s="48" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C86" s="47" t="s">
-        <v>91</v>
+        <v>394</v>
       </c>
       <c r="D86" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E86" s="29">
         <v>1130.48</v>
@@ -27413,13 +27408,13 @@
         <v>78</v>
       </c>
       <c r="B87" s="56" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C87" s="47" t="s">
-        <v>91</v>
+        <v>394</v>
       </c>
       <c r="D87" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E87" s="29">
         <v>1363.54</v>
@@ -27480,13 +27475,13 @@
         <v>79</v>
       </c>
       <c r="B88" s="48" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C88" s="47" t="s">
-        <v>91</v>
+        <v>394</v>
       </c>
       <c r="D88" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E88" s="29">
         <v>622.12</v>
@@ -27555,13 +27550,13 @@
         <v>80</v>
       </c>
       <c r="B89" s="28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C89" s="47" t="s">
-        <v>91</v>
+        <v>394</v>
       </c>
       <c r="D89" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E89" s="29">
         <v>1556.9</v>
@@ -27630,13 +27625,13 @@
         <v>81</v>
       </c>
       <c r="B90" s="48" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C90" s="47" t="s">
-        <v>91</v>
+        <v>394</v>
       </c>
       <c r="D90" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E90" s="29">
         <v>861.5</v>
@@ -27699,13 +27694,13 @@
         <v>82</v>
       </c>
       <c r="B91" s="48" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C91" s="47" t="s">
-        <v>91</v>
+        <v>394</v>
       </c>
       <c r="D91" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E91" s="29">
         <v>1538.22</v>
@@ -27768,13 +27763,13 @@
         <v>83</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C92" s="47" t="s">
-        <v>91</v>
+        <v>394</v>
       </c>
       <c r="D92" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E92" s="29">
         <v>6201.9</v>
@@ -27858,13 +27853,13 @@
         <v>84</v>
       </c>
       <c r="B93" s="28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C93" s="47" t="s">
-        <v>91</v>
+        <v>394</v>
       </c>
       <c r="D93" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E93" s="29">
         <v>3140.8</v>
@@ -27930,13 +27925,13 @@
         <v>85</v>
       </c>
       <c r="B94" s="48" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C94" s="47" t="s">
-        <v>91</v>
+        <v>394</v>
       </c>
       <c r="D94" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E94" s="29">
         <v>1766.1</v>
@@ -28002,13 +27997,13 @@
         <v>86</v>
       </c>
       <c r="B95" s="56" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C95" s="47" t="s">
-        <v>91</v>
+        <v>394</v>
       </c>
       <c r="D95" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E95" s="29">
         <v>1707.36</v>
@@ -28089,13 +28084,13 @@
         <v>87</v>
       </c>
       <c r="B96" s="37" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C96" s="47" t="s">
-        <v>91</v>
+        <v>394</v>
       </c>
       <c r="D96" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E96" s="38">
         <v>1683.65</v>
@@ -28164,10 +28159,10 @@
         <v>19</v>
       </c>
       <c r="C97" s="47" t="s">
-        <v>91</v>
+        <v>394</v>
       </c>
       <c r="D97" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E97" s="29"/>
       <c r="F97" s="30"/>
@@ -28215,10 +28210,10 @@
         <v>21</v>
       </c>
       <c r="C98" s="47" t="s">
-        <v>91</v>
+        <v>394</v>
       </c>
       <c r="D98" s="47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E98" s="29"/>
       <c r="F98" s="30"/>
@@ -28265,13 +28260,13 @@
         <v>88</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C99" s="47" t="s">
-        <v>109</v>
+        <v>395</v>
       </c>
       <c r="D99" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E99" s="20">
         <v>2549.69</v>
@@ -28346,13 +28341,13 @@
         <v>89</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C100" s="47" t="s">
-        <v>109</v>
+        <v>395</v>
       </c>
       <c r="D100" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E100" s="29">
         <v>5613.87</v>
@@ -28424,13 +28419,13 @@
         <v>90</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C101" s="47" t="s">
-        <v>109</v>
+        <v>395</v>
       </c>
       <c r="D101" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E101" s="29">
         <v>8006.6</v>
@@ -28526,13 +28521,13 @@
         <v>91</v>
       </c>
       <c r="B102" s="28" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C102" s="47" t="s">
-        <v>109</v>
+        <v>395</v>
       </c>
       <c r="D102" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E102" s="29">
         <v>1500.16</v>
@@ -28607,13 +28602,13 @@
         <v>92</v>
       </c>
       <c r="B103" s="28" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C103" s="47" t="s">
-        <v>109</v>
+        <v>395</v>
       </c>
       <c r="D103" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E103" s="29">
         <v>2790.7</v>
@@ -28688,13 +28683,13 @@
         <v>93</v>
       </c>
       <c r="B104" s="28" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C104" s="47" t="s">
-        <v>109</v>
+        <v>395</v>
       </c>
       <c r="D104" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E104" s="29">
         <v>2155.73</v>
@@ -28766,13 +28761,13 @@
         <v>94</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C105" s="47" t="s">
-        <v>109</v>
+        <v>395</v>
       </c>
       <c r="D105" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E105" s="29">
         <v>5230.2</v>
@@ -28850,13 +28845,13 @@
         <v>95</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C106" s="47" t="s">
-        <v>109</v>
+        <v>395</v>
       </c>
       <c r="D106" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E106" s="29">
         <v>653.48</v>
@@ -28931,13 +28926,13 @@
         <v>96</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C107" s="47" t="s">
-        <v>109</v>
+        <v>395</v>
       </c>
       <c r="D107" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E107" s="29">
         <v>1830.63</v>
@@ -29009,13 +29004,13 @@
         <v>97</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C108" s="47" t="s">
-        <v>109</v>
+        <v>395</v>
       </c>
       <c r="D108" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E108" s="29">
         <v>2460.59</v>
@@ -29090,13 +29085,13 @@
         <v>98</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C109" s="47" t="s">
-        <v>109</v>
+        <v>395</v>
       </c>
       <c r="D109" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E109" s="29">
         <v>2050.0100000000002</v>
@@ -29168,13 +29163,13 @@
         <v>99</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C110" s="47" t="s">
-        <v>109</v>
+        <v>395</v>
       </c>
       <c r="D110" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E110" s="29">
         <v>2365.87</v>
@@ -29252,13 +29247,13 @@
         <v>100</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C111" s="47" t="s">
-        <v>109</v>
+        <v>395</v>
       </c>
       <c r="D111" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E111" s="29">
         <v>3501.54</v>
@@ -29324,13 +29319,13 @@
         <v>101</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C112" s="47" t="s">
-        <v>109</v>
+        <v>395</v>
       </c>
       <c r="D112" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E112" s="29">
         <v>3250.2</v>
@@ -29393,13 +29388,13 @@
         <v>102</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C113" s="47" t="s">
-        <v>109</v>
+        <v>395</v>
       </c>
       <c r="D113" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E113" s="29">
         <v>3801.2</v>
@@ -29465,13 +29460,13 @@
         <v>103</v>
       </c>
       <c r="B114" s="28" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C114" s="47" t="s">
-        <v>109</v>
+        <v>395</v>
       </c>
       <c r="D114" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E114" s="29">
         <v>4420.7</v>
@@ -29531,13 +29526,13 @@
         <v>104</v>
       </c>
       <c r="B115" s="37" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C115" s="47" t="s">
-        <v>109</v>
+        <v>395</v>
       </c>
       <c r="D115" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E115" s="38">
         <v>3336.8</v>
@@ -29592,10 +29587,10 @@
         <v>19</v>
       </c>
       <c r="C116" s="47" t="s">
-        <v>109</v>
+        <v>395</v>
       </c>
       <c r="D116" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E116" s="29"/>
       <c r="F116" s="30"/>
@@ -29646,10 +29641,10 @@
         <v>21</v>
       </c>
       <c r="C117" s="47" t="s">
-        <v>109</v>
+        <v>395</v>
       </c>
       <c r="D117" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E117" s="29"/>
       <c r="F117" s="30"/>
@@ -29699,13 +29694,13 @@
         <v>105</v>
       </c>
       <c r="B118" s="55" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C118" s="47" t="s">
-        <v>128</v>
+        <v>396</v>
       </c>
       <c r="D118" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E118" s="20">
         <v>470.3</v>
@@ -29768,13 +29763,13 @@
         <v>106</v>
       </c>
       <c r="B119" s="48" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C119" s="47" t="s">
-        <v>128</v>
+        <v>396</v>
       </c>
       <c r="D119" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E119" s="29">
         <v>1010.3</v>
@@ -29837,13 +29832,13 @@
         <v>107</v>
       </c>
       <c r="B120" s="28" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C120" s="47" t="s">
-        <v>128</v>
+        <v>396</v>
       </c>
       <c r="D120" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E120" s="29">
         <v>1293</v>
@@ -29924,13 +29919,13 @@
         <v>108</v>
       </c>
       <c r="B121" s="48" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C121" s="47" t="s">
-        <v>128</v>
+        <v>396</v>
       </c>
       <c r="D121" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E121" s="29">
         <v>680.6</v>
@@ -29999,13 +29994,13 @@
         <v>109</v>
       </c>
       <c r="B122" s="48" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C122" s="47" t="s">
-        <v>128</v>
+        <v>396</v>
       </c>
       <c r="D122" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E122" s="29">
         <v>842.8</v>
@@ -30074,13 +30069,13 @@
         <v>110</v>
       </c>
       <c r="B123" s="28" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C123" s="47" t="s">
-        <v>128</v>
+        <v>396</v>
       </c>
       <c r="D123" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E123" s="29">
         <v>2099.5300000000002</v>
@@ -30158,13 +30153,13 @@
         <v>111</v>
       </c>
       <c r="B124" s="48" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C124" s="47" t="s">
-        <v>128</v>
+        <v>396</v>
       </c>
       <c r="D124" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E124" s="29">
         <v>1418.2</v>
@@ -30227,13 +30222,13 @@
         <v>112</v>
       </c>
       <c r="B125" s="48" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C125" s="47" t="s">
-        <v>128</v>
+        <v>396</v>
       </c>
       <c r="D125" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E125" s="29">
         <v>819.4</v>
@@ -30302,13 +30297,13 @@
         <v>113</v>
       </c>
       <c r="B126" s="28" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C126" s="47" t="s">
-        <v>128</v>
+        <v>396</v>
       </c>
       <c r="D126" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E126" s="29">
         <v>4672.91</v>
@@ -30389,13 +30384,13 @@
         <v>114</v>
       </c>
       <c r="B127" s="48" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C127" s="47" t="s">
-        <v>128</v>
+        <v>396</v>
       </c>
       <c r="D127" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E127" s="29">
         <v>791.1</v>
@@ -30461,13 +30456,13 @@
         <v>115</v>
       </c>
       <c r="B128" s="48" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C128" s="47" t="s">
-        <v>128</v>
+        <v>396</v>
       </c>
       <c r="D128" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E128" s="29">
         <v>1086.17</v>
@@ -30533,13 +30528,13 @@
         <v>116</v>
       </c>
       <c r="B129" s="48" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C129" s="47" t="s">
-        <v>128</v>
+        <v>396</v>
       </c>
       <c r="D129" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E129" s="29">
         <v>1007.85</v>
@@ -30599,13 +30594,13 @@
         <v>117</v>
       </c>
       <c r="B130" s="48" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C130" s="47" t="s">
-        <v>128</v>
+        <v>396</v>
       </c>
       <c r="D130" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E130" s="29">
         <v>703.7</v>
@@ -30668,13 +30663,13 @@
         <v>118</v>
       </c>
       <c r="B131" s="48" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C131" s="47" t="s">
-        <v>128</v>
+        <v>396</v>
       </c>
       <c r="D131" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E131" s="29">
         <v>1062.5</v>
@@ -30734,13 +30729,13 @@
         <v>119</v>
       </c>
       <c r="B132" s="48" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C132" s="47" t="s">
-        <v>128</v>
+        <v>396</v>
       </c>
       <c r="D132" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E132" s="29">
         <v>1014.33</v>
@@ -30800,13 +30795,13 @@
         <v>120</v>
       </c>
       <c r="B133" s="49" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C133" s="47" t="s">
-        <v>128</v>
+        <v>396</v>
       </c>
       <c r="D133" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E133" s="38">
         <v>462.2</v>
@@ -30866,13 +30861,13 @@
         <v>121</v>
       </c>
       <c r="B134" s="55" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C134" s="47" t="s">
-        <v>145</v>
+        <v>397</v>
       </c>
       <c r="D134" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E134" s="20">
         <v>553.47</v>
@@ -30935,13 +30930,13 @@
         <v>122</v>
       </c>
       <c r="B135" s="48" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C135" s="47" t="s">
-        <v>145</v>
+        <v>397</v>
       </c>
       <c r="D135" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E135" s="29">
         <v>940.64</v>
@@ -31004,13 +30999,13 @@
         <v>123</v>
       </c>
       <c r="B136" s="48" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C136" s="47" t="s">
-        <v>145</v>
+        <v>397</v>
       </c>
       <c r="D136" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E136" s="29">
         <v>1401.3</v>
@@ -31076,13 +31071,13 @@
         <v>124</v>
       </c>
       <c r="B137" s="28" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C137" s="47" t="s">
-        <v>145</v>
+        <v>397</v>
       </c>
       <c r="D137" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E137" s="29">
         <v>3336.03</v>
@@ -31157,13 +31152,13 @@
         <v>125</v>
       </c>
       <c r="B138" s="48" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C138" s="47" t="s">
-        <v>145</v>
+        <v>397</v>
       </c>
       <c r="D138" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E138" s="29">
         <v>1673.31</v>
@@ -31226,13 +31221,13 @@
         <v>126</v>
       </c>
       <c r="B139" s="48" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C139" s="47" t="s">
-        <v>145</v>
+        <v>397</v>
       </c>
       <c r="D139" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E139" s="29">
         <v>1601.73</v>
@@ -31295,13 +31290,13 @@
         <v>127</v>
       </c>
       <c r="B140" s="28" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C140" s="47" t="s">
-        <v>145</v>
+        <v>397</v>
       </c>
       <c r="D140" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E140" s="29">
         <v>680.28</v>
@@ -31364,13 +31359,13 @@
         <v>128</v>
       </c>
       <c r="B141" s="48" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C141" s="47" t="s">
-        <v>145</v>
+        <v>397</v>
       </c>
       <c r="D141" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E141" s="29">
         <v>798.33</v>
@@ -31430,13 +31425,13 @@
         <v>129</v>
       </c>
       <c r="B142" s="48" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C142" s="47" t="s">
-        <v>145</v>
+        <v>397</v>
       </c>
       <c r="D142" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E142" s="29">
         <v>845.07</v>
@@ -31499,13 +31494,13 @@
         <v>130</v>
       </c>
       <c r="B143" s="48" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C143" s="47" t="s">
-        <v>145</v>
+        <v>397</v>
       </c>
       <c r="D143" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E143" s="29">
         <v>1123.9000000000001</v>
@@ -31562,13 +31557,13 @@
         <v>131</v>
       </c>
       <c r="B144" s="49" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C144" s="47" t="s">
-        <v>145</v>
+        <v>397</v>
       </c>
       <c r="D144" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E144" s="38">
         <v>1387.07</v>
@@ -31625,13 +31620,13 @@
         <v>132</v>
       </c>
       <c r="B145" s="55" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C145" s="47" t="s">
-        <v>157</v>
+        <v>398</v>
       </c>
       <c r="D145" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E145" s="20">
         <v>1479.9</v>
@@ -31697,13 +31692,13 @@
         <v>133</v>
       </c>
       <c r="B146" s="48" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C146" s="47" t="s">
-        <v>157</v>
+        <v>398</v>
       </c>
       <c r="D146" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E146" s="29">
         <v>1105.82</v>
@@ -31769,13 +31764,13 @@
         <v>134</v>
       </c>
       <c r="B147" s="48" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C147" s="47" t="s">
-        <v>157</v>
+        <v>398</v>
       </c>
       <c r="D147" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E147" s="29">
         <v>1477.59</v>
@@ -31838,13 +31833,13 @@
         <v>135</v>
       </c>
       <c r="B148" s="28" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C148" s="47" t="s">
-        <v>157</v>
+        <v>398</v>
       </c>
       <c r="D148" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E148" s="29">
         <v>4678.5</v>
@@ -31919,13 +31914,13 @@
         <v>136</v>
       </c>
       <c r="B149" s="48" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C149" s="47" t="s">
-        <v>157</v>
+        <v>398</v>
       </c>
       <c r="D149" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E149" s="29">
         <v>1238.72</v>
@@ -31991,13 +31986,13 @@
         <v>137</v>
       </c>
       <c r="B150" s="28" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C150" s="47" t="s">
-        <v>157</v>
+        <v>398</v>
       </c>
       <c r="D150" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E150" s="29">
         <v>3018.16</v>
@@ -32075,13 +32070,13 @@
         <v>138</v>
       </c>
       <c r="B151" s="28" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C151" s="47" t="s">
-        <v>157</v>
+        <v>398</v>
       </c>
       <c r="D151" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E151" s="29">
         <v>5218</v>
@@ -32144,13 +32139,13 @@
         <v>139</v>
       </c>
       <c r="B152" s="48" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C152" s="47" t="s">
-        <v>157</v>
+        <v>398</v>
       </c>
       <c r="D152" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E152" s="29">
         <v>1342.86</v>
@@ -32213,13 +32208,13 @@
         <v>140</v>
       </c>
       <c r="B153" s="49" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C153" s="47" t="s">
-        <v>157</v>
+        <v>398</v>
       </c>
       <c r="D153" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E153" s="38">
         <v>2236.02</v>
@@ -32285,10 +32280,10 @@
         <v>19</v>
       </c>
       <c r="C154" s="47" t="s">
-        <v>157</v>
+        <v>398</v>
       </c>
       <c r="D154" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E154" s="29"/>
       <c r="F154" s="30"/>
@@ -32336,10 +32331,10 @@
         <v>21</v>
       </c>
       <c r="C155" s="47" t="s">
-        <v>157</v>
+        <v>398</v>
       </c>
       <c r="D155" s="47" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E155" s="29"/>
       <c r="F155" s="30"/>
@@ -32386,13 +32381,13 @@
         <v>141</v>
       </c>
       <c r="B156" s="55" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C156" s="47" t="s">
-        <v>167</v>
+        <v>399</v>
       </c>
       <c r="D156" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E156" s="20">
         <v>1238.93</v>
@@ -32467,13 +32462,13 @@
         <v>142</v>
       </c>
       <c r="B157" s="48" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C157" s="47" t="s">
-        <v>167</v>
+        <v>399</v>
       </c>
       <c r="D157" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E157" s="29">
         <v>872.11</v>
@@ -32548,13 +32543,13 @@
         <v>143</v>
       </c>
       <c r="B158" s="48" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C158" s="47" t="s">
-        <v>167</v>
+        <v>399</v>
       </c>
       <c r="D158" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E158" s="29">
         <v>552.48</v>
@@ -32629,13 +32624,13 @@
         <v>144</v>
       </c>
       <c r="B159" s="48" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C159" s="47" t="s">
-        <v>167</v>
+        <v>399</v>
       </c>
       <c r="D159" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E159" s="29">
         <v>1332.55</v>
@@ -32710,13 +32705,13 @@
         <v>145</v>
       </c>
       <c r="B160" s="48" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C160" s="47" t="s">
-        <v>167</v>
+        <v>399</v>
       </c>
       <c r="D160" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E160" s="29">
         <v>1080.5999999999999</v>
@@ -32791,13 +32786,13 @@
         <v>146</v>
       </c>
       <c r="B161" s="48" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C161" s="47" t="s">
-        <v>167</v>
+        <v>399</v>
       </c>
       <c r="D161" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E161" s="29">
         <v>661.94</v>
@@ -32872,13 +32867,13 @@
         <v>147</v>
       </c>
       <c r="B162" s="28" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C162" s="47" t="s">
-        <v>167</v>
+        <v>399</v>
       </c>
       <c r="D162" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E162" s="29">
         <v>9051.27</v>
@@ -32965,13 +32960,13 @@
         <v>148</v>
       </c>
       <c r="B163" s="48" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C163" s="47" t="s">
-        <v>167</v>
+        <v>399</v>
       </c>
       <c r="D163" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E163" s="29">
         <v>1142.03</v>
@@ -33049,13 +33044,13 @@
         <v>149</v>
       </c>
       <c r="B164" s="48" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C164" s="47" t="s">
-        <v>167</v>
+        <v>399</v>
       </c>
       <c r="D164" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E164" s="29">
         <v>1202.6099999999999</v>
@@ -33130,13 +33125,13 @@
         <v>150</v>
       </c>
       <c r="B165" s="56" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C165" s="47" t="s">
-        <v>167</v>
+        <v>399</v>
       </c>
       <c r="D165" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E165" s="29">
         <v>1334.93</v>
@@ -33211,13 +33206,13 @@
         <v>151</v>
       </c>
       <c r="B166" s="48" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C166" s="47" t="s">
-        <v>167</v>
+        <v>399</v>
       </c>
       <c r="D166" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E166" s="29">
         <v>630.94000000000005</v>
@@ -33295,13 +33290,13 @@
         <v>152</v>
       </c>
       <c r="B167" s="56" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C167" s="47" t="s">
-        <v>167</v>
+        <v>399</v>
       </c>
       <c r="D167" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E167" s="29">
         <v>2818.07</v>
@@ -33379,13 +33374,13 @@
         <v>153</v>
       </c>
       <c r="B168" s="49" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C168" s="47" t="s">
-        <v>167</v>
+        <v>399</v>
       </c>
       <c r="D168" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E168" s="38">
         <v>2814</v>
@@ -33459,10 +33454,10 @@
         <v>19</v>
       </c>
       <c r="C169" s="47" t="s">
-        <v>167</v>
+        <v>399</v>
       </c>
       <c r="D169" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E169" s="29"/>
       <c r="F169" s="30"/>
@@ -33513,10 +33508,10 @@
         <v>21</v>
       </c>
       <c r="C170" s="47" t="s">
-        <v>167</v>
+        <v>399</v>
       </c>
       <c r="D170" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E170" s="29"/>
       <c r="F170" s="30"/>
@@ -33566,13 +33561,13 @@
         <v>154</v>
       </c>
       <c r="B171" s="55" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C171" s="47" t="s">
-        <v>182</v>
+        <v>400</v>
       </c>
       <c r="D171" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E171" s="20">
         <v>1685.5</v>
@@ -33635,13 +33630,13 @@
         <v>155</v>
       </c>
       <c r="B172" s="48" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C172" s="47" t="s">
-        <v>182</v>
+        <v>400</v>
       </c>
       <c r="D172" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E172" s="29">
         <v>1110.55</v>
@@ -33704,13 +33699,13 @@
         <v>156</v>
       </c>
       <c r="B173" s="48" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C173" s="47" t="s">
-        <v>182</v>
+        <v>400</v>
       </c>
       <c r="D173" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E173" s="29">
         <v>1123.1300000000001</v>
@@ -33773,13 +33768,13 @@
         <v>157</v>
       </c>
       <c r="B174" s="48" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C174" s="47" t="s">
-        <v>182</v>
+        <v>400</v>
       </c>
       <c r="D174" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E174" s="29">
         <v>418.9</v>
@@ -33842,13 +33837,13 @@
         <v>158</v>
       </c>
       <c r="B175" s="48" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C175" s="47" t="s">
-        <v>182</v>
+        <v>400</v>
       </c>
       <c r="D175" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E175" s="29">
         <v>1161.75</v>
@@ -33911,13 +33906,13 @@
         <v>159</v>
       </c>
       <c r="B176" s="48" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C176" s="47" t="s">
-        <v>182</v>
+        <v>400</v>
       </c>
       <c r="D176" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E176" s="29">
         <v>1118.17</v>
@@ -33980,13 +33975,13 @@
         <v>160</v>
       </c>
       <c r="B177" s="28" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C177" s="47" t="s">
-        <v>182</v>
+        <v>400</v>
       </c>
       <c r="D177" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E177" s="29">
         <v>365.65</v>
@@ -34061,13 +34056,13 @@
         <v>161</v>
       </c>
       <c r="B178" s="28" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C178" s="47" t="s">
-        <v>182</v>
+        <v>400</v>
       </c>
       <c r="D178" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E178" s="29">
         <v>2430.52</v>
@@ -34133,13 +34128,13 @@
         <v>162</v>
       </c>
       <c r="B179" s="28" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C179" s="47" t="s">
-        <v>182</v>
+        <v>400</v>
       </c>
       <c r="D179" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E179" s="29">
         <v>1948</v>
@@ -34217,13 +34212,13 @@
         <v>163</v>
       </c>
       <c r="B180" s="28" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C180" s="47" t="s">
-        <v>182</v>
+        <v>400</v>
       </c>
       <c r="D180" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E180" s="29">
         <v>1438.1</v>
@@ -34298,13 +34293,13 @@
         <v>164</v>
       </c>
       <c r="B181" s="48" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C181" s="47" t="s">
-        <v>182</v>
+        <v>400</v>
       </c>
       <c r="D181" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E181" s="29">
         <v>2169.44</v>
@@ -34367,13 +34362,13 @@
         <v>165</v>
       </c>
       <c r="B182" s="28" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C182" s="47" t="s">
-        <v>182</v>
+        <v>400</v>
       </c>
       <c r="D182" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E182" s="29">
         <v>7153.13</v>
@@ -34454,13 +34449,13 @@
         <v>166</v>
       </c>
       <c r="B183" s="48" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C183" s="47" t="s">
-        <v>182</v>
+        <v>400</v>
       </c>
       <c r="D183" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E183" s="29">
         <v>1130.04</v>
@@ -34523,13 +34518,13 @@
         <v>167</v>
       </c>
       <c r="B184" s="37" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C184" s="47" t="s">
-        <v>182</v>
+        <v>400</v>
       </c>
       <c r="D184" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E184" s="38">
         <v>2264.9</v>
@@ -34612,10 +34607,10 @@
         <v>19</v>
       </c>
       <c r="C185" s="47" t="s">
-        <v>182</v>
+        <v>400</v>
       </c>
       <c r="D185" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E185" s="29"/>
       <c r="F185" s="30"/>
@@ -34663,10 +34658,10 @@
         <v>21</v>
       </c>
       <c r="C186" s="47" t="s">
-        <v>182</v>
+        <v>400</v>
       </c>
       <c r="D186" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E186" s="29"/>
       <c r="F186" s="30"/>
@@ -34713,13 +34708,13 @@
         <v>168</v>
       </c>
       <c r="B187" s="55" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C187" s="47" t="s">
-        <v>197</v>
+        <v>414</v>
       </c>
       <c r="D187" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E187" s="20">
         <v>525.15</v>
@@ -34780,13 +34775,13 @@
         <v>169</v>
       </c>
       <c r="B188" s="48" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C188" s="47" t="s">
-        <v>197</v>
+        <v>414</v>
       </c>
       <c r="D188" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E188" s="29">
         <v>528.62</v>
@@ -34850,13 +34845,13 @@
         <v>170</v>
       </c>
       <c r="B189" s="28" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C189" s="47" t="s">
-        <v>197</v>
+        <v>414</v>
       </c>
       <c r="D189" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E189" s="29">
         <v>2803.54</v>
@@ -34929,13 +34924,13 @@
         <v>171</v>
       </c>
       <c r="B190" s="48" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C190" s="47" t="s">
-        <v>197</v>
+        <v>414</v>
       </c>
       <c r="D190" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E190" s="29">
         <v>753.74</v>
@@ -34996,13 +34991,13 @@
         <v>172</v>
       </c>
       <c r="B191" s="48" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C191" s="47" t="s">
-        <v>197</v>
+        <v>414</v>
       </c>
       <c r="D191" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E191" s="29">
         <v>742.01</v>
@@ -35063,13 +35058,13 @@
         <v>173</v>
       </c>
       <c r="B192" s="28" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C192" s="47" t="s">
-        <v>197</v>
+        <v>414</v>
       </c>
       <c r="D192" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E192" s="29">
         <v>2010.05</v>
@@ -35139,13 +35134,13 @@
         <v>174</v>
       </c>
       <c r="B193" s="28" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C193" s="47" t="s">
-        <v>197</v>
+        <v>414</v>
       </c>
       <c r="D193" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E193" s="29">
         <v>1657.9</v>
@@ -35218,13 +35213,13 @@
         <v>175</v>
       </c>
       <c r="B194" s="28" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C194" s="47" t="s">
-        <v>197</v>
+        <v>414</v>
       </c>
       <c r="D194" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E194" s="29">
         <v>735</v>
@@ -35291,13 +35286,13 @@
         <v>176</v>
       </c>
       <c r="B195" s="48" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C195" s="47" t="s">
-        <v>197</v>
+        <v>414</v>
       </c>
       <c r="D195" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E195" s="29">
         <v>991.7</v>
@@ -35355,13 +35350,13 @@
         <v>177</v>
       </c>
       <c r="B196" s="48" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C196" s="47" t="s">
-        <v>197</v>
+        <v>414</v>
       </c>
       <c r="D196" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E196" s="29">
         <v>1198.46</v>
@@ -35419,13 +35414,13 @@
         <v>178</v>
       </c>
       <c r="B197" s="48" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C197" s="47" t="s">
-        <v>197</v>
+        <v>414</v>
       </c>
       <c r="D197" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E197" s="29">
         <v>803.87</v>
@@ -35481,13 +35476,13 @@
         <v>179</v>
       </c>
       <c r="B198" s="48" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C198" s="47" t="s">
-        <v>197</v>
+        <v>414</v>
       </c>
       <c r="D198" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E198" s="29">
         <v>423.85</v>
@@ -35545,13 +35540,13 @@
         <v>180</v>
       </c>
       <c r="B199" s="48" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C199" s="47" t="s">
-        <v>197</v>
+        <v>414</v>
       </c>
       <c r="D199" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E199" s="29">
         <v>515.57000000000005</v>
@@ -35609,13 +35604,13 @@
         <v>181</v>
       </c>
       <c r="B200" s="49" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C200" s="47" t="s">
-        <v>197</v>
+        <v>414</v>
       </c>
       <c r="D200" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E200" s="38">
         <v>584.63</v>
@@ -35667,13 +35662,13 @@
         <v>182</v>
       </c>
       <c r="B201" s="18" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C201" s="47" t="s">
-        <v>53</v>
+        <v>392</v>
       </c>
       <c r="D201" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E201" s="20">
         <v>671.75</v>
@@ -35746,13 +35741,13 @@
         <v>183</v>
       </c>
       <c r="B202" s="28" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C202" s="47" t="s">
-        <v>53</v>
+        <v>392</v>
       </c>
       <c r="D202" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E202" s="29">
         <v>2060.0100000000002</v>
@@ -35834,13 +35829,13 @@
         <v>184</v>
       </c>
       <c r="B203" s="28" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C203" s="47" t="s">
-        <v>53</v>
+        <v>392</v>
       </c>
       <c r="D203" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E203" s="29">
         <v>800.01</v>
@@ -35916,13 +35911,13 @@
         <v>185</v>
       </c>
       <c r="B204" s="28" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C204" s="47" t="s">
-        <v>53</v>
+        <v>392</v>
       </c>
       <c r="D204" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E204" s="29">
         <v>1565.9</v>
@@ -35992,13 +35987,13 @@
         <v>186</v>
       </c>
       <c r="B205" s="28" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C205" s="47" t="s">
-        <v>53</v>
+        <v>392</v>
       </c>
       <c r="D205" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E205" s="29">
         <v>680.33</v>
@@ -36068,13 +36063,13 @@
         <v>187</v>
       </c>
       <c r="B206" s="28" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C206" s="47" t="s">
-        <v>53</v>
+        <v>392</v>
       </c>
       <c r="D206" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E206" s="29">
         <v>780.3</v>
@@ -36144,13 +36139,13 @@
         <v>188</v>
       </c>
       <c r="B207" s="28" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C207" s="47" t="s">
-        <v>53</v>
+        <v>392</v>
       </c>
       <c r="D207" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E207" s="29">
         <v>1093</v>
@@ -36226,13 +36221,13 @@
         <v>189</v>
       </c>
       <c r="B208" s="28" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C208" s="47" t="s">
-        <v>53</v>
+        <v>392</v>
       </c>
       <c r="D208" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E208" s="29">
         <v>1605.35</v>
@@ -36302,13 +36297,13 @@
         <v>190</v>
       </c>
       <c r="B209" s="28" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C209" s="47" t="s">
-        <v>53</v>
+        <v>392</v>
       </c>
       <c r="D209" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E209" s="29">
         <v>1010.1</v>
@@ -36378,13 +36373,13 @@
         <v>191</v>
       </c>
       <c r="B210" s="28" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C210" s="47" t="s">
-        <v>53</v>
+        <v>392</v>
       </c>
       <c r="D210" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E210" s="29">
         <v>2160.1999999999998</v>
@@ -36457,13 +36452,13 @@
         <v>192</v>
       </c>
       <c r="B211" s="28" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C211" s="47" t="s">
-        <v>53</v>
+        <v>392</v>
       </c>
       <c r="D211" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E211" s="29">
         <v>1040</v>
@@ -36536,13 +36531,13 @@
         <v>193</v>
       </c>
       <c r="B212" s="37" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C212" s="47" t="s">
-        <v>53</v>
+        <v>392</v>
       </c>
       <c r="D212" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E212" s="38">
         <v>602.29999999999995</v>
@@ -36613,13 +36608,13 @@
         <v>194</v>
       </c>
       <c r="B213" s="18" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C213" s="47" t="s">
-        <v>224</v>
+        <v>401</v>
       </c>
       <c r="D213" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E213" s="20">
         <v>373.49</v>
@@ -36698,13 +36693,13 @@
         <v>195</v>
       </c>
       <c r="B214" s="37" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C214" s="47" t="s">
-        <v>224</v>
+        <v>401</v>
       </c>
       <c r="D214" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E214" s="38">
         <v>904.64</v>
@@ -36779,10 +36774,10 @@
         <v>19</v>
       </c>
       <c r="C215" s="47" t="s">
-        <v>224</v>
+        <v>401</v>
       </c>
       <c r="D215" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E215" s="29"/>
       <c r="F215" s="30"/>
@@ -36833,10 +36828,10 @@
         <v>21</v>
       </c>
       <c r="C216" s="47" t="s">
-        <v>224</v>
+        <v>401</v>
       </c>
       <c r="D216" s="47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E216" s="29"/>
       <c r="F216" s="30"/>
@@ -36886,13 +36881,13 @@
         <v>196</v>
       </c>
       <c r="B217" s="55" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C217" s="47" t="s">
-        <v>227</v>
+        <v>402</v>
       </c>
       <c r="D217" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E217" s="20">
         <v>570.9</v>
@@ -36962,13 +36957,13 @@
         <v>197</v>
       </c>
       <c r="B218" s="48" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C218" s="47" t="s">
-        <v>227</v>
+        <v>402</v>
       </c>
       <c r="D218" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E218" s="46">
         <v>555.1</v>
@@ -37038,13 +37033,13 @@
         <v>198</v>
       </c>
       <c r="B219" s="28" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C219" s="47" t="s">
-        <v>227</v>
+        <v>402</v>
       </c>
       <c r="D219" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E219" s="29">
         <v>1230.4000000000001</v>
@@ -37107,13 +37102,13 @@
         <v>199</v>
       </c>
       <c r="B220" s="28" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C220" s="47" t="s">
-        <v>227</v>
+        <v>402</v>
       </c>
       <c r="D220" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E220" s="29">
         <v>1092.5999999999999</v>
@@ -37189,13 +37184,13 @@
         <v>200</v>
       </c>
       <c r="B221" s="28" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C221" s="47" t="s">
-        <v>227</v>
+        <v>402</v>
       </c>
       <c r="D221" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E221" s="29">
         <v>5010.8</v>
@@ -37277,13 +37272,13 @@
         <v>201</v>
       </c>
       <c r="B222" s="28" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C222" s="47" t="s">
-        <v>227</v>
+        <v>402</v>
       </c>
       <c r="D222" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E222" s="29">
         <v>4181.5</v>
@@ -37365,13 +37360,13 @@
         <v>202</v>
       </c>
       <c r="B223" s="48" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C223" s="47" t="s">
-        <v>227</v>
+        <v>402</v>
       </c>
       <c r="D223" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E223" s="29">
         <v>320</v>
@@ -37434,13 +37429,13 @@
         <v>203</v>
       </c>
       <c r="B224" s="48" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C224" s="47" t="s">
-        <v>227</v>
+        <v>402</v>
       </c>
       <c r="D224" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E224" s="29">
         <v>284.49</v>
@@ -37510,13 +37505,13 @@
         <v>204</v>
       </c>
       <c r="B225" s="48" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="C225" s="47" t="s">
-        <v>227</v>
+        <v>402</v>
       </c>
       <c r="D225" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E225" s="29">
         <v>747.2</v>
@@ -37586,13 +37581,13 @@
         <v>205</v>
       </c>
       <c r="B226" s="48" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C226" s="47" t="s">
-        <v>227</v>
+        <v>402</v>
       </c>
       <c r="D226" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E226" s="29">
         <v>241</v>
@@ -37662,13 +37657,13 @@
         <v>206</v>
       </c>
       <c r="B227" s="48" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="C227" s="47" t="s">
-        <v>227</v>
+        <v>402</v>
       </c>
       <c r="D227" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E227" s="29">
         <v>389.6</v>
@@ -37738,13 +37733,13 @@
         <v>207</v>
       </c>
       <c r="B228" s="48" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="C228" s="47" t="s">
-        <v>227</v>
+        <v>402</v>
       </c>
       <c r="D228" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E228" s="29"/>
       <c r="F228" s="30"/>
@@ -37803,13 +37798,13 @@
         <v>208</v>
       </c>
       <c r="B229" s="49" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C229" s="47" t="s">
-        <v>227</v>
+        <v>402</v>
       </c>
       <c r="D229" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E229" s="38"/>
       <c r="F229" s="39"/>
@@ -37874,10 +37869,10 @@
         <v>19</v>
       </c>
       <c r="C230" s="47" t="s">
-        <v>227</v>
+        <v>402</v>
       </c>
       <c r="D230" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E230" s="29"/>
       <c r="F230" s="30"/>
@@ -37928,10 +37923,10 @@
         <v>21</v>
       </c>
       <c r="C231" s="47" t="s">
-        <v>227</v>
+        <v>402</v>
       </c>
       <c r="D231" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E231" s="29"/>
       <c r="F231" s="30"/>
@@ -37981,13 +37976,13 @@
         <v>209</v>
       </c>
       <c r="B232" s="55" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="C232" s="47" t="s">
-        <v>227</v>
+        <v>402</v>
       </c>
       <c r="D232" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E232" s="20">
         <v>850.3</v>
@@ -38048,13 +38043,13 @@
         <v>210</v>
       </c>
       <c r="B233" s="48" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="C233" s="47" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D233" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E233" s="29">
         <v>1650.5</v>
@@ -38121,13 +38116,13 @@
         <v>211</v>
       </c>
       <c r="B234" s="28" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="C234" s="47" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D234" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E234" s="29">
         <v>2617.4</v>
@@ -38197,13 +38192,13 @@
         <v>212</v>
       </c>
       <c r="B235" s="48" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="C235" s="47" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D235" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E235" s="29">
         <v>1003.45</v>
@@ -38267,13 +38262,13 @@
         <v>213</v>
       </c>
       <c r="B236" s="28" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="C236" s="47" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D236" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E236" s="29">
         <v>5003.2</v>
@@ -38358,13 +38353,13 @@
         <v>214</v>
       </c>
       <c r="B237" s="48" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="C237" s="47" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D237" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E237" s="29">
         <v>1210.0999999999999</v>
@@ -38425,13 +38420,13 @@
         <v>215</v>
       </c>
       <c r="B238" s="48" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="C238" s="47" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D238" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E238" s="29">
         <v>700.2</v>
@@ -38492,13 +38487,13 @@
         <v>216</v>
       </c>
       <c r="B239" s="48" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C239" s="47" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D239" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E239" s="29">
         <v>692.3</v>
@@ -38559,13 +38554,13 @@
         <v>217</v>
       </c>
       <c r="B240" s="49" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="C240" s="47" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D240" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E240" s="38">
         <v>673.6</v>
@@ -38623,10 +38618,10 @@
         <v>19</v>
       </c>
       <c r="C241" s="47" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D241" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E241" s="29"/>
       <c r="F241" s="30"/>
@@ -38674,10 +38669,10 @@
         <v>21</v>
       </c>
       <c r="C242" s="47" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D242" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E242" s="29"/>
       <c r="F242" s="30"/>
@@ -38724,13 +38719,13 @@
         <v>218</v>
       </c>
       <c r="B243" s="18" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="C243" s="47" t="s">
-        <v>252</v>
+        <v>403</v>
       </c>
       <c r="D243" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E243" s="20">
         <v>7650.8</v>
@@ -38816,13 +38811,13 @@
         <v>219</v>
       </c>
       <c r="B244" s="48" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C244" s="47" t="s">
-        <v>252</v>
+        <v>403</v>
       </c>
       <c r="D244" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E244" s="29">
         <v>1002.9</v>
@@ -38883,13 +38878,13 @@
         <v>220</v>
       </c>
       <c r="B245" s="28" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C245" s="47" t="s">
-        <v>252</v>
+        <v>403</v>
       </c>
       <c r="D245" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E245" s="29">
         <v>1351.1</v>
@@ -38956,13 +38951,13 @@
         <v>221</v>
       </c>
       <c r="B246" s="28" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C246" s="47" t="s">
-        <v>252</v>
+        <v>403</v>
       </c>
       <c r="D246" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E246" s="29">
         <v>1107.3</v>
@@ -39038,13 +39033,13 @@
         <v>222</v>
       </c>
       <c r="B247" s="28" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="C247" s="47" t="s">
-        <v>252</v>
+        <v>403</v>
       </c>
       <c r="D247" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E247" s="29">
         <v>1340.4</v>
@@ -39120,13 +39115,13 @@
         <v>223</v>
       </c>
       <c r="B248" s="56" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C248" s="47" t="s">
-        <v>252</v>
+        <v>403</v>
       </c>
       <c r="D248" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E248" s="29">
         <v>1513.1</v>
@@ -39208,13 +39203,13 @@
         <v>224</v>
       </c>
       <c r="B249" s="28" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C249" s="47" t="s">
-        <v>252</v>
+        <v>403</v>
       </c>
       <c r="D249" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E249" s="29">
         <v>1193.6600000000001</v>
@@ -39287,13 +39282,13 @@
         <v>225</v>
       </c>
       <c r="B250" s="28" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C250" s="47" t="s">
-        <v>252</v>
+        <v>403</v>
       </c>
       <c r="D250" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E250" s="29">
         <v>775.1</v>
@@ -39369,13 +39364,13 @@
         <v>226</v>
       </c>
       <c r="B251" s="48" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C251" s="47" t="s">
-        <v>252</v>
+        <v>403</v>
       </c>
       <c r="D251" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E251" s="29">
         <v>1080</v>
@@ -39436,13 +39431,13 @@
         <v>227</v>
       </c>
       <c r="B252" s="48" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C252" s="47" t="s">
-        <v>252</v>
+        <v>403</v>
       </c>
       <c r="D252" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E252" s="29">
         <v>1031.3</v>
@@ -39509,13 +39504,13 @@
         <v>228</v>
       </c>
       <c r="B253" s="28" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C253" s="47" t="s">
-        <v>252</v>
+        <v>403</v>
       </c>
       <c r="D253" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E253" s="29">
         <v>7158.6</v>
@@ -39600,13 +39595,13 @@
         <v>229</v>
       </c>
       <c r="B254" s="28" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="C254" s="47" t="s">
-        <v>252</v>
+        <v>403</v>
       </c>
       <c r="D254" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E254" s="29">
         <v>1344.9</v>
@@ -39682,13 +39677,13 @@
         <v>230</v>
       </c>
       <c r="B255" s="28" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C255" s="47" t="s">
-        <v>252</v>
+        <v>403</v>
       </c>
       <c r="D255" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E255" s="29">
         <v>2623.3</v>
@@ -39750,13 +39745,13 @@
         <v>231</v>
       </c>
       <c r="B256" s="49" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C256" s="47" t="s">
-        <v>252</v>
+        <v>403</v>
       </c>
       <c r="D256" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E256" s="38">
         <v>615.1</v>
@@ -39809,10 +39804,10 @@
         <v>19</v>
       </c>
       <c r="C257" s="47" t="s">
-        <v>252</v>
+        <v>403</v>
       </c>
       <c r="D257" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E257" s="29"/>
       <c r="F257" s="30"/>
@@ -39860,10 +39855,10 @@
         <v>21</v>
       </c>
       <c r="C258" s="47" t="s">
-        <v>252</v>
+        <v>403</v>
       </c>
       <c r="D258" s="47" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E258" s="29"/>
       <c r="F258" s="30"/>
@@ -39910,13 +39905,13 @@
         <v>248</v>
       </c>
       <c r="B259" s="18" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C259" s="47" t="s">
-        <v>267</v>
+        <v>404</v>
       </c>
       <c r="D259" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E259" s="63">
         <v>193.92</v>
@@ -39980,13 +39975,13 @@
         <v>249</v>
       </c>
       <c r="B260" s="28" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="C260" s="47" t="s">
-        <v>267</v>
+        <v>404</v>
       </c>
       <c r="D260" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E260" s="29">
         <v>226.3</v>
@@ -40053,13 +40048,13 @@
         <v>250</v>
       </c>
       <c r="B261" s="48" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="C261" s="47" t="s">
-        <v>267</v>
+        <v>404</v>
       </c>
       <c r="D261" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E261" s="29">
         <v>252.22</v>
@@ -40120,13 +40115,13 @@
         <v>251</v>
       </c>
       <c r="B262" s="48" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C262" s="47" t="s">
-        <v>267</v>
+        <v>404</v>
       </c>
       <c r="D262" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E262" s="29">
         <v>336.86</v>
@@ -40187,13 +40182,13 @@
         <v>252</v>
       </c>
       <c r="B263" s="48" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="C263" s="47" t="s">
-        <v>267</v>
+        <v>404</v>
       </c>
       <c r="D263" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E263" s="29">
         <v>108.89</v>
@@ -40254,13 +40249,13 @@
         <v>253</v>
       </c>
       <c r="B264" s="48" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C264" s="47" t="s">
-        <v>267</v>
+        <v>404</v>
       </c>
       <c r="D264" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E264" s="29">
         <v>463.3</v>
@@ -40321,13 +40316,13 @@
         <v>254</v>
       </c>
       <c r="B265" s="48" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="C265" s="47" t="s">
-        <v>267</v>
+        <v>404</v>
       </c>
       <c r="D265" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E265" s="29">
         <v>381.18</v>
@@ -40388,13 +40383,13 @@
         <v>255</v>
       </c>
       <c r="B266" s="48" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="C266" s="47" t="s">
-        <v>267</v>
+        <v>404</v>
       </c>
       <c r="D266" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E266" s="29">
         <v>341.92</v>
@@ -40455,13 +40450,13 @@
         <v>256</v>
       </c>
       <c r="B267" s="48" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="C267" s="47" t="s">
-        <v>267</v>
+        <v>404</v>
       </c>
       <c r="D267" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E267" s="29">
         <v>456.3</v>
@@ -40522,13 +40517,13 @@
         <v>257</v>
       </c>
       <c r="B268" s="28" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="C268" s="47" t="s">
-        <v>267</v>
+        <v>404</v>
       </c>
       <c r="D268" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E268" s="29">
         <v>1776.28</v>
@@ -40604,13 +40599,13 @@
         <v>258</v>
       </c>
       <c r="B269" s="48" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="C269" s="47" t="s">
-        <v>267</v>
+        <v>404</v>
       </c>
       <c r="D269" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E269" s="29">
         <v>642.70000000000005</v>
@@ -40668,13 +40663,13 @@
         <v>259</v>
       </c>
       <c r="B270" s="48" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="C270" s="47" t="s">
-        <v>267</v>
+        <v>404</v>
       </c>
       <c r="D270" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E270" s="29">
         <v>606.07000000000005</v>
@@ -40732,13 +40727,13 @@
         <v>260</v>
       </c>
       <c r="B271" s="48" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="C271" s="47" t="s">
-        <v>267</v>
+        <v>404</v>
       </c>
       <c r="D271" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E271" s="29">
         <v>249.5</v>
@@ -40796,13 +40791,13 @@
         <v>261</v>
       </c>
       <c r="B272" s="49" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="C272" s="47" t="s">
-        <v>267</v>
+        <v>404</v>
       </c>
       <c r="D272" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E272" s="38"/>
       <c r="F272" s="39">
@@ -40853,10 +40848,10 @@
         <v>19</v>
       </c>
       <c r="C273" s="47" t="s">
-        <v>267</v>
+        <v>404</v>
       </c>
       <c r="D273" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E273" s="29"/>
       <c r="F273" s="30"/>
@@ -40904,10 +40899,10 @@
         <v>21</v>
       </c>
       <c r="C274" s="47" t="s">
-        <v>267</v>
+        <v>404</v>
       </c>
       <c r="D274" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E274" s="29"/>
       <c r="F274" s="30"/>
@@ -40954,13 +40949,13 @@
         <v>262</v>
       </c>
       <c r="B275" s="55" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="C275" s="47" t="s">
-        <v>283</v>
+        <v>405</v>
       </c>
       <c r="D275" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E275" s="20">
         <v>54.68</v>
@@ -41021,13 +41016,13 @@
         <v>263</v>
       </c>
       <c r="B276" s="48" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="C276" s="47" t="s">
-        <v>283</v>
+        <v>405</v>
       </c>
       <c r="D276" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E276" s="29">
         <v>609.70000000000005</v>
@@ -41088,13 +41083,13 @@
         <v>264</v>
       </c>
       <c r="B277" s="48" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="C277" s="47" t="s">
-        <v>283</v>
+        <v>405</v>
       </c>
       <c r="D277" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E277" s="29">
         <v>117.12</v>
@@ -41155,13 +41150,13 @@
         <v>265</v>
       </c>
       <c r="B278" s="48" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C278" s="47" t="s">
-        <v>283</v>
+        <v>405</v>
       </c>
       <c r="D278" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E278" s="29">
         <v>112.26</v>
@@ -41222,13 +41217,13 @@
         <v>266</v>
       </c>
       <c r="B279" s="48" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="C279" s="47" t="s">
-        <v>283</v>
+        <v>405</v>
       </c>
       <c r="D279" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E279" s="29">
         <v>32.08</v>
@@ -41289,13 +41284,13 @@
         <v>267</v>
       </c>
       <c r="B280" s="48" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="C280" s="47" t="s">
-        <v>283</v>
+        <v>405</v>
       </c>
       <c r="D280" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E280" s="29">
         <v>66.47</v>
@@ -41359,13 +41354,13 @@
         <v>268</v>
       </c>
       <c r="B281" s="48" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="C281" s="47" t="s">
-        <v>283</v>
+        <v>405</v>
       </c>
       <c r="D281" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E281" s="29">
         <v>337</v>
@@ -41426,13 +41421,13 @@
         <v>269</v>
       </c>
       <c r="B282" s="37" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="C282" s="47" t="s">
-        <v>283</v>
+        <v>405</v>
       </c>
       <c r="D282" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E282" s="38">
         <v>978.53</v>
@@ -41509,10 +41504,10 @@
         <v>19</v>
       </c>
       <c r="C283" s="47" t="s">
-        <v>283</v>
+        <v>405</v>
       </c>
       <c r="D283" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E283" s="29"/>
       <c r="F283" s="30"/>
@@ -41560,10 +41555,10 @@
         <v>21</v>
       </c>
       <c r="C284" s="47" t="s">
-        <v>283</v>
+        <v>405</v>
       </c>
       <c r="D284" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E284" s="29"/>
       <c r="F284" s="30"/>
@@ -41610,13 +41605,13 @@
         <v>270</v>
       </c>
       <c r="B285" s="18" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C285" s="47" t="s">
-        <v>292</v>
+        <v>410</v>
       </c>
       <c r="D285" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E285" s="20">
         <v>446.32</v>
@@ -41672,13 +41667,13 @@
         <v>271</v>
       </c>
       <c r="B286" s="48" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="C286" s="47" t="s">
-        <v>292</v>
+        <v>410</v>
       </c>
       <c r="D286" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E286" s="29"/>
       <c r="F286" s="30"/>
@@ -41735,13 +41730,13 @@
         <v>272</v>
       </c>
       <c r="B287" s="28" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="C287" s="47" t="s">
-        <v>292</v>
+        <v>410</v>
       </c>
       <c r="D287" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E287" s="29">
         <v>1273.49</v>
@@ -41823,13 +41818,13 @@
         <v>273</v>
       </c>
       <c r="B288" s="48" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="C288" s="47" t="s">
-        <v>292</v>
+        <v>410</v>
       </c>
       <c r="D288" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E288" s="29">
         <v>182.95</v>
@@ -41887,13 +41882,13 @@
         <v>274</v>
       </c>
       <c r="B289" s="49" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="C289" s="47" t="s">
-        <v>292</v>
+        <v>410</v>
       </c>
       <c r="D289" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E289" s="38">
         <v>286.83</v>
@@ -41945,13 +41940,13 @@
         <v>232</v>
       </c>
       <c r="B290" s="18" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="C290" s="47" t="s">
-        <v>298</v>
+        <v>413</v>
       </c>
       <c r="D290" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E290" s="20">
         <v>853.5</v>
@@ -42021,13 +42016,13 @@
         <v>233</v>
       </c>
       <c r="B291" s="28" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="C291" s="47" t="s">
-        <v>298</v>
+        <v>413</v>
       </c>
       <c r="D291" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E291" s="29">
         <v>2400</v>
@@ -42133,13 +42128,13 @@
         <v>234</v>
       </c>
       <c r="B292" s="28" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="C292" s="47" t="s">
-        <v>298</v>
+        <v>413</v>
       </c>
       <c r="D292" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E292" s="29">
         <v>653</v>
@@ -42197,13 +42192,13 @@
         <v>235</v>
       </c>
       <c r="B293" s="48" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="C293" s="47" t="s">
-        <v>298</v>
+        <v>413</v>
       </c>
       <c r="D293" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E293" s="29">
         <v>267.2</v>
@@ -42261,13 +42256,13 @@
         <v>236</v>
       </c>
       <c r="B294" s="48" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="C294" s="47" t="s">
-        <v>298</v>
+        <v>413</v>
       </c>
       <c r="D294" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E294" s="29">
         <v>940</v>
@@ -42325,13 +42320,13 @@
         <v>237</v>
       </c>
       <c r="B295" s="48" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="C295" s="47" t="s">
-        <v>298</v>
+        <v>413</v>
       </c>
       <c r="D295" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E295" s="29">
         <v>1439.33</v>
@@ -42389,13 +42384,13 @@
         <v>238</v>
       </c>
       <c r="B296" s="48" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="C296" s="47" t="s">
-        <v>298</v>
+        <v>413</v>
       </c>
       <c r="D296" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E296" s="29"/>
       <c r="F296" s="30"/>
@@ -42445,13 +42440,13 @@
         <v>239</v>
       </c>
       <c r="B297" s="48" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="C297" s="47" t="s">
-        <v>298</v>
+        <v>413</v>
       </c>
       <c r="D297" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E297" s="29">
         <v>226.8</v>
@@ -42509,13 +42504,13 @@
         <v>240</v>
       </c>
       <c r="B298" s="48" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="C298" s="47" t="s">
-        <v>298</v>
+        <v>413</v>
       </c>
       <c r="D298" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E298" s="29">
         <v>1077.5999999999999</v>
@@ -42571,13 +42566,13 @@
         <v>241</v>
       </c>
       <c r="B299" s="48" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="C299" s="47" t="s">
-        <v>298</v>
+        <v>413</v>
       </c>
       <c r="D299" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E299" s="29">
         <v>76.59</v>
@@ -42635,13 +42630,13 @@
         <v>242</v>
       </c>
       <c r="B300" s="48" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="C300" s="47" t="s">
-        <v>298</v>
+        <v>413</v>
       </c>
       <c r="D300" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E300" s="29">
         <v>617.29999999999995</v>
@@ -42699,13 +42694,13 @@
         <v>243</v>
       </c>
       <c r="B301" s="48" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="C301" s="47" t="s">
-        <v>298</v>
+        <v>413</v>
       </c>
       <c r="D301" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E301" s="29">
         <v>170.99</v>
@@ -42763,13 +42758,13 @@
         <v>244</v>
       </c>
       <c r="B302" s="48" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="C302" s="47" t="s">
-        <v>298</v>
+        <v>413</v>
       </c>
       <c r="D302" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E302" s="29">
         <v>462.3</v>
@@ -42825,13 +42820,13 @@
         <v>245</v>
       </c>
       <c r="B303" s="48" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="C303" s="47" t="s">
-        <v>298</v>
+        <v>413</v>
       </c>
       <c r="D303" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E303" s="29">
         <v>208.08</v>
@@ -42892,13 +42887,13 @@
         <v>246</v>
       </c>
       <c r="B304" s="48" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="C304" s="47" t="s">
-        <v>298</v>
+        <v>413</v>
       </c>
       <c r="D304" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E304" s="29">
         <v>104.67</v>
@@ -42954,13 +42949,13 @@
         <v>247</v>
       </c>
       <c r="B305" s="49" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="C305" s="47" t="s">
-        <v>298</v>
+        <v>413</v>
       </c>
       <c r="D305" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E305" s="38"/>
       <c r="F305" s="39"/>
@@ -43004,13 +42999,13 @@
         <v>275</v>
       </c>
       <c r="B306" s="55" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="C306" s="47" t="s">
-        <v>315</v>
+        <v>406</v>
       </c>
       <c r="D306" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E306" s="20">
         <v>510.88</v>
@@ -43071,13 +43066,13 @@
         <v>276</v>
       </c>
       <c r="B307" s="28" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="C307" s="47" t="s">
-        <v>315</v>
+        <v>406</v>
       </c>
       <c r="D307" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E307" s="29">
         <v>321.98</v>
@@ -43153,13 +43148,13 @@
         <v>277</v>
       </c>
       <c r="B308" s="28" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="C308" s="47" t="s">
-        <v>315</v>
+        <v>406</v>
       </c>
       <c r="D308" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E308" s="29">
         <v>1545.91</v>
@@ -43232,13 +43227,13 @@
         <v>278</v>
       </c>
       <c r="B309" s="28" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="C309" s="47" t="s">
-        <v>315</v>
+        <v>406</v>
       </c>
       <c r="D309" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E309" s="29">
         <v>4884.13</v>
@@ -43320,13 +43315,13 @@
         <v>279</v>
       </c>
       <c r="B310" s="28" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="C310" s="47" t="s">
-        <v>315</v>
+        <v>406</v>
       </c>
       <c r="D310" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E310" s="29">
         <v>1349.01</v>
@@ -43411,13 +43406,13 @@
         <v>280</v>
       </c>
       <c r="B311" s="28" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="C311" s="47" t="s">
-        <v>315</v>
+        <v>406</v>
       </c>
       <c r="D311" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E311" s="29">
         <v>1860.39</v>
@@ -43493,13 +43488,13 @@
         <v>281</v>
       </c>
       <c r="B312" s="28" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="C312" s="47" t="s">
-        <v>315</v>
+        <v>406</v>
       </c>
       <c r="D312" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E312" s="29">
         <v>1354.14</v>
@@ -43557,13 +43552,13 @@
         <v>282</v>
       </c>
       <c r="B313" s="48" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="C313" s="47" t="s">
-        <v>315</v>
+        <v>406</v>
       </c>
       <c r="D313" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E313" s="29">
         <v>881.73</v>
@@ -43630,13 +43625,13 @@
         <v>283</v>
       </c>
       <c r="B314" s="48" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="C314" s="47" t="s">
-        <v>315</v>
+        <v>406</v>
       </c>
       <c r="D314" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E314" s="29">
         <v>2846.75</v>
@@ -43694,13 +43689,13 @@
         <v>284</v>
       </c>
       <c r="B315" s="49" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C315" s="47" t="s">
-        <v>315</v>
+        <v>406</v>
       </c>
       <c r="D315" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E315" s="38">
         <v>604.54999999999995</v>
@@ -43753,10 +43748,10 @@
         <v>19</v>
       </c>
       <c r="C316" s="47" t="s">
-        <v>315</v>
+        <v>406</v>
       </c>
       <c r="D316" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E316" s="29"/>
       <c r="F316" s="30"/>
@@ -43807,10 +43802,10 @@
         <v>21</v>
       </c>
       <c r="C317" s="47" t="s">
-        <v>315</v>
+        <v>406</v>
       </c>
       <c r="D317" s="47" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E317" s="29"/>
       <c r="F317" s="30"/>
@@ -43860,13 +43855,13 @@
         <v>285</v>
       </c>
       <c r="B318" s="55" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="C318" s="47" t="s">
-        <v>326</v>
+        <v>407</v>
       </c>
       <c r="D318" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E318" s="20">
         <v>518.75</v>
@@ -43930,13 +43925,13 @@
         <v>286</v>
       </c>
       <c r="B319" s="28" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="C319" s="47" t="s">
-        <v>326</v>
+        <v>407</v>
       </c>
       <c r="D319" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E319" s="29">
         <v>800.88</v>
@@ -44003,13 +43998,13 @@
         <v>287</v>
       </c>
       <c r="B320" s="48" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="C320" s="47" t="s">
-        <v>326</v>
+        <v>407</v>
       </c>
       <c r="D320" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E320" s="29">
         <v>417.97</v>
@@ -44070,13 +44065,13 @@
         <v>288</v>
       </c>
       <c r="B321" s="48" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="C321" s="47" t="s">
-        <v>326</v>
+        <v>407</v>
       </c>
       <c r="D321" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E321" s="29">
         <v>736.61</v>
@@ -44137,13 +44132,13 @@
         <v>289</v>
       </c>
       <c r="B322" s="48" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="C322" s="47" t="s">
-        <v>326</v>
+        <v>407</v>
       </c>
       <c r="D322" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E322" s="29">
         <v>835.1</v>
@@ -44204,13 +44199,13 @@
         <v>290</v>
       </c>
       <c r="B323" s="28" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="C323" s="47" t="s">
-        <v>326</v>
+        <v>407</v>
       </c>
       <c r="D323" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E323" s="64">
         <v>1455.1</v>
@@ -44283,13 +44278,13 @@
         <v>291</v>
       </c>
       <c r="B324" s="48" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="C324" s="47" t="s">
-        <v>326</v>
+        <v>407</v>
       </c>
       <c r="D324" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E324" s="29">
         <v>1092.4000000000001</v>
@@ -44353,13 +44348,13 @@
         <v>292</v>
       </c>
       <c r="B325" s="48" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="C325" s="47" t="s">
-        <v>326</v>
+        <v>407</v>
       </c>
       <c r="D325" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E325" s="29">
         <v>1069.3399999999999</v>
@@ -44420,13 +44415,13 @@
         <v>293</v>
       </c>
       <c r="B326" s="28" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="C326" s="47" t="s">
-        <v>326</v>
+        <v>407</v>
       </c>
       <c r="D326" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E326" s="29">
         <v>1395.9</v>
@@ -44499,13 +44494,13 @@
         <v>294</v>
       </c>
       <c r="B327" s="48" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="C327" s="47" t="s">
-        <v>326</v>
+        <v>407</v>
       </c>
       <c r="D327" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E327" s="29">
         <v>1245.4100000000001</v>
@@ -44569,13 +44564,13 @@
         <v>295</v>
       </c>
       <c r="B328" s="28" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="C328" s="47" t="s">
-        <v>326</v>
+        <v>407</v>
       </c>
       <c r="D328" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E328" s="29">
         <v>9108.9</v>
@@ -44657,13 +44652,13 @@
         <v>296</v>
       </c>
       <c r="B329" s="48" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="C329" s="47" t="s">
-        <v>326</v>
+        <v>407</v>
       </c>
       <c r="D329" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E329" s="29">
         <v>1134.79</v>
@@ -44724,13 +44719,13 @@
         <v>297</v>
       </c>
       <c r="B330" s="28" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="C330" s="47" t="s">
-        <v>326</v>
+        <v>407</v>
       </c>
       <c r="D330" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E330" s="29">
         <v>1140.48</v>
@@ -44809,13 +44804,13 @@
         <v>298</v>
       </c>
       <c r="B331" s="28" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="C331" s="47" t="s">
-        <v>326</v>
+        <v>407</v>
       </c>
       <c r="D331" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E331" s="29">
         <v>1001.6</v>
@@ -44891,13 +44886,13 @@
         <v>299</v>
       </c>
       <c r="B332" s="28" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="C332" s="47" t="s">
-        <v>326</v>
+        <v>407</v>
       </c>
       <c r="D332" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E332" s="29">
         <v>1342.89</v>
@@ -44958,13 +44953,13 @@
         <v>300</v>
       </c>
       <c r="B333" s="28" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="C333" s="47" t="s">
-        <v>326</v>
+        <v>407</v>
       </c>
       <c r="D333" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E333" s="29">
         <v>1328.55</v>
@@ -45022,13 +45017,13 @@
         <v>301</v>
       </c>
       <c r="B334" s="48" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C334" s="47" t="s">
-        <v>326</v>
+        <v>407</v>
       </c>
       <c r="D334" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E334" s="29">
         <v>860.04</v>
@@ -45092,13 +45087,13 @@
         <v>302</v>
       </c>
       <c r="B335" s="48" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C335" s="47" t="s">
-        <v>326</v>
+        <v>407</v>
       </c>
       <c r="D335" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E335" s="29">
         <v>415.94</v>
@@ -45156,13 +45151,13 @@
         <v>303</v>
       </c>
       <c r="B336" s="48" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C336" s="47" t="s">
-        <v>326</v>
+        <v>407</v>
       </c>
       <c r="D336" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E336" s="29">
         <v>233.99</v>
@@ -45220,13 +45215,13 @@
         <v>304</v>
       </c>
       <c r="B337" s="48" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C337" s="47" t="s">
-        <v>326</v>
+        <v>407</v>
       </c>
       <c r="D337" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E337" s="29">
         <v>201.22</v>
@@ -45284,13 +45279,13 @@
         <v>305</v>
       </c>
       <c r="B338" s="49" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="C338" s="47" t="s">
-        <v>326</v>
+        <v>407</v>
       </c>
       <c r="D338" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E338" s="38"/>
       <c r="F338" s="39">
@@ -45347,10 +45342,10 @@
         <v>19</v>
       </c>
       <c r="C339" s="47" t="s">
-        <v>326</v>
+        <v>407</v>
       </c>
       <c r="D339" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E339" s="29"/>
       <c r="F339" s="30"/>
@@ -45398,10 +45393,10 @@
         <v>21</v>
       </c>
       <c r="C340" s="47" t="s">
-        <v>326</v>
+        <v>407</v>
       </c>
       <c r="D340" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E340" s="29"/>
       <c r="F340" s="30"/>
@@ -45448,13 +45443,13 @@
         <v>306</v>
       </c>
       <c r="B341" s="67" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="C341" s="68" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="D341" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E341" s="20">
         <v>12656.69</v>
@@ -45544,13 +45539,13 @@
         <v>307</v>
       </c>
       <c r="B342" s="55" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="C342" s="47" t="s">
-        <v>350</v>
+        <v>408</v>
       </c>
       <c r="D342" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E342" s="20">
         <v>535.22</v>
@@ -45611,13 +45606,13 @@
         <v>308</v>
       </c>
       <c r="B343" s="48" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="C343" s="47" t="s">
-        <v>350</v>
+        <v>408</v>
       </c>
       <c r="D343" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E343" s="64">
         <v>429.16</v>
@@ -45678,13 +45673,13 @@
         <v>309</v>
       </c>
       <c r="B344" s="48" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="C344" s="47" t="s">
-        <v>350</v>
+        <v>408</v>
       </c>
       <c r="D344" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E344" s="29">
         <v>585.64</v>
@@ -45745,13 +45740,13 @@
         <v>310</v>
       </c>
       <c r="B345" s="48" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="C345" s="47" t="s">
-        <v>350</v>
+        <v>408</v>
       </c>
       <c r="D345" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E345" s="29">
         <v>1041.93</v>
@@ -45812,13 +45807,13 @@
         <v>311</v>
       </c>
       <c r="B346" s="28" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="C346" s="47" t="s">
-        <v>350</v>
+        <v>408</v>
       </c>
       <c r="D346" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E346" s="29">
         <v>2085.42</v>
@@ -45900,13 +45895,13 @@
         <v>312</v>
       </c>
       <c r="B347" s="48" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="C347" s="47" t="s">
-        <v>350</v>
+        <v>408</v>
       </c>
       <c r="D347" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E347" s="29">
         <v>882.11</v>
@@ -45967,13 +45962,13 @@
         <v>313</v>
       </c>
       <c r="B348" s="28" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="C348" s="47" t="s">
-        <v>350</v>
+        <v>408</v>
       </c>
       <c r="D348" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E348" s="29">
         <v>1584.67</v>
@@ -46043,13 +46038,13 @@
         <v>314</v>
       </c>
       <c r="B349" s="48" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="C349" s="47" t="s">
-        <v>350</v>
+        <v>408</v>
       </c>
       <c r="D349" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E349" s="29">
         <v>558.91</v>
@@ -46110,13 +46105,13 @@
         <v>315</v>
       </c>
       <c r="B350" s="49" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="C350" s="47" t="s">
-        <v>350</v>
+        <v>408</v>
       </c>
       <c r="D350" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E350" s="38">
         <v>645.54</v>
@@ -46169,10 +46164,10 @@
         <v>19</v>
       </c>
       <c r="C351" s="47" t="s">
-        <v>350</v>
+        <v>408</v>
       </c>
       <c r="D351" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E351" s="29"/>
       <c r="F351" s="30"/>
@@ -46220,10 +46215,10 @@
         <v>21</v>
       </c>
       <c r="C352" s="47" t="s">
-        <v>350</v>
+        <v>408</v>
       </c>
       <c r="D352" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E352" s="29"/>
       <c r="F352" s="30"/>
@@ -46270,13 +46265,13 @@
         <v>316</v>
       </c>
       <c r="B353" s="55" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="C353" s="47" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="D353" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E353" s="20">
         <v>632.5</v>
@@ -46337,13 +46332,13 @@
         <v>317</v>
       </c>
       <c r="B354" s="28" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="C354" s="47" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="D354" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E354" s="29">
         <v>3415.31</v>
@@ -46422,13 +46417,13 @@
         <v>318</v>
       </c>
       <c r="B355" s="48" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="C355" s="47" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="D355" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E355" s="29">
         <v>416.09</v>
@@ -46489,13 +46484,13 @@
         <v>319</v>
       </c>
       <c r="B356" s="28" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="C356" s="47" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="D356" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E356" s="29">
         <v>1583.94</v>
@@ -46556,13 +46551,13 @@
         <v>320</v>
       </c>
       <c r="B357" s="28" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="C357" s="47" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="D357" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E357" s="29">
         <v>1102.5</v>
@@ -46632,13 +46627,13 @@
         <v>321</v>
       </c>
       <c r="B358" s="48" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="C358" s="47" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="D358" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E358" s="29">
         <v>634.70000000000005</v>
@@ -46696,13 +46691,13 @@
         <v>322</v>
       </c>
       <c r="B359" s="48" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="C359" s="47" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="D359" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E359" s="29">
         <v>248.81</v>
@@ -46760,13 +46755,13 @@
         <v>323</v>
       </c>
       <c r="B360" s="48" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="C360" s="47" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="D360" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E360" s="29">
         <v>1012</v>
@@ -46820,13 +46815,13 @@
         <v>324</v>
       </c>
       <c r="B361" s="48" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="C361" s="47" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="D361" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E361" s="29">
         <v>131.30000000000001</v>
@@ -46882,13 +46877,13 @@
         <v>325</v>
       </c>
       <c r="B362" s="48" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="C362" s="47" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="D362" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E362" s="29">
         <v>449.74</v>
@@ -46946,13 +46941,13 @@
         <v>326</v>
       </c>
       <c r="B363" s="48" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="C363" s="47" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="D363" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E363" s="29">
         <v>425.4</v>
@@ -47010,13 +47005,13 @@
         <v>327</v>
       </c>
       <c r="B364" s="48" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="C364" s="47" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="D364" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E364" s="29">
         <v>5553.36</v>
@@ -47074,13 +47069,13 @@
         <v>328</v>
       </c>
       <c r="B365" s="48" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="C365" s="47" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="D365" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E365" s="29">
         <v>272.32</v>
@@ -47138,13 +47133,13 @@
         <v>329</v>
       </c>
       <c r="B366" s="48" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="C366" s="47" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="D366" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E366" s="29">
         <v>761</v>
@@ -47202,13 +47197,13 @@
         <v>330</v>
       </c>
       <c r="B367" s="48" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
       <c r="C367" s="47" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="D367" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E367" s="29">
         <v>230.9</v>
@@ -47266,13 +47261,13 @@
         <v>331</v>
       </c>
       <c r="B368" s="49" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="C368" s="47" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="D368" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E368" s="38">
         <v>85.82</v>
@@ -47330,13 +47325,13 @@
         <v>332</v>
       </c>
       <c r="B369" s="18" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="C369" s="47" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="D369" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E369" s="20">
         <v>304.87</v>
@@ -47404,13 +47399,13 @@
         <v>333</v>
       </c>
       <c r="B370" s="48" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="C370" s="47" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="D370" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E370" s="29"/>
       <c r="F370" s="30"/>
@@ -47464,13 +47459,13 @@
         <v>334</v>
       </c>
       <c r="B371" s="48" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="C371" s="47" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="D371" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E371" s="29"/>
       <c r="F371" s="30"/>
@@ -47520,13 +47515,13 @@
         <v>335</v>
       </c>
       <c r="B372" s="48" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="C372" s="47" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="D372" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E372" s="29"/>
       <c r="F372" s="30"/>
@@ -47576,13 +47571,13 @@
         <v>336</v>
       </c>
       <c r="B373" s="48" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="C373" s="47" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="D373" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E373" s="29"/>
       <c r="F373" s="30"/>
@@ -47632,13 +47627,13 @@
         <v>337</v>
       </c>
       <c r="B374" s="48" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="C374" s="47" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="D374" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E374" s="29"/>
       <c r="F374" s="30"/>
@@ -47688,13 +47683,13 @@
         <v>338</v>
       </c>
       <c r="B375" s="49" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="C375" s="47" t="s">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="D375" s="47" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E375" s="38">
         <v>81.83</v>
